--- a/Planung/Gantchart (1).xlsx
+++ b/Planung/Gantchart (1).xlsx
@@ -1915,8 +1915,8 @@
   <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5229,6 +5229,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5516,36 +5545,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5564,24 +5584,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planung/Gantchart (1).xlsx
+++ b/Planung/Gantchart (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92596322-656C-409B-95DF-7E98A22862A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABD8D2-F989-46D8-8177-6F48C3D9B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,15 +227,9 @@
     <t>Testung mit Hardware</t>
   </si>
   <si>
-    <t>Schreib- und Lesezugriff auf RFID Daten herstellen</t>
-  </si>
-  <si>
     <t>Kameradaten auslesen und in QT verfügbar machen</t>
   </si>
   <si>
-    <t>QT mit MQTT, SQL Bibliothen installieren</t>
-  </si>
-  <si>
     <t>Datenbankzugriff und Abfrage über QT herstellen</t>
   </si>
   <si>
@@ -273,6 +267,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tonn, Anton Rüdenauer </t>
+  </si>
+  <si>
+    <t>QT mit MQTT, SQL Bibliothen installieren und auf Entwicklungsrechner aufsetzen und Verbindung zum Broker herstellen</t>
+  </si>
+  <si>
+    <t>Schreib- und Lesezugriff auf RFID Daten herstellen und in Qt einbinden</t>
   </si>
 </sst>
 </file>
@@ -1916,13 +1916,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="67.86328125" customWidth="1"/>
+    <col min="2" max="2" width="98.59765625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.46484375" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.46484375" customWidth="1"/>
@@ -1959,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="81">
@@ -3224,10 +3224,10 @@
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="41"/>
       <c r="B16" s="47" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C16" s="16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D16" s="60">
         <v>45292</v>
@@ -3300,7 +3300,7 @@
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="40"/>
       <c r="B17" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="16">
         <v>0</v>
@@ -3376,10 +3376,10 @@
     <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="40"/>
       <c r="B18" s="47" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C18" s="16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="60">
         <v>45292</v>
@@ -3452,10 +3452,10 @@
     <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="40"/>
       <c r="B19" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="60">
         <v>45292</v>
@@ -3525,7 +3525,7 @@
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="40"/>
       <c r="B20" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="60"/>
@@ -3592,7 +3592,7 @@
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="40"/>
       <c r="B21" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="16">
         <v>0</v>
@@ -3823,7 +3823,7 @@
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="40"/>
       <c r="B24" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
@@ -3899,7 +3899,7 @@
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="40"/>
       <c r="B25" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="19">
         <v>0</v>
@@ -3972,7 +3972,7 @@
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="40"/>
       <c r="B26" s="48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
@@ -4045,7 +4045,7 @@
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="40"/>
       <c r="B27" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="19">
         <v>0</v>
@@ -4118,7 +4118,7 @@
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="40"/>
       <c r="B28" s="48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
@@ -4269,7 +4269,7 @@
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="40"/>
       <c r="B30" s="49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="22">
         <v>0</v>
@@ -4345,7 +4345,7 @@
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="40"/>
       <c r="B31" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="22">
         <v>0</v>
@@ -4421,7 +4421,7 @@
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="40"/>
       <c r="B32" s="49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="22">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="40"/>
       <c r="B33" s="49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="22">
         <v>0</v>
